--- a/MS Excel/Prectical-1(MS Excel).xlsx
+++ b/MS Excel/Prectical-1(MS Excel).xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darshan University\sem-2\Prectical\OAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darshan University\sem-2\Prectical\OAT\MS Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7958BC0F-B4AF-43A2-B247-A47493FAD4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C66A3A-2DFC-4CDE-9C4B-6A90F5C26EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{324C9FC4-41C4-40BF-9C36-47FC7EF2E87C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{324C9FC4-41C4-40BF-9C36-47FC7EF2E87C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>ROLL NO</t>
   </si>
@@ -171,13 +172,61 @@
     <t>jnd</t>
   </si>
   <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>passs</t>
-  </si>
-  <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>backlock</t>
+  </si>
+  <si>
+    <t>pass/fail2</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>proper</t>
+  </si>
+  <si>
+    <t>concetenate</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maths</t>
+  </si>
+  <si>
+    <t>phy</t>
+  </si>
+  <si>
+    <t>oop</t>
+  </si>
+  <si>
+    <t>foe</t>
+  </si>
+  <si>
+    <t>dbms</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -185,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\,dddd"/>
-    <numFmt numFmtId="166" formatCode="dddd/mmmm/yy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy\,dddd"/>
+    <numFmt numFmtId="165" formatCode="dddd/mmmm/yy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,16 +245,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -330,39 +400,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -381,15 +502,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
         <vertical/>
@@ -397,11 +515,22 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -435,23 +564,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -459,73 +571,27 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,7 +694,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5358705161854769E-2"/>
+          <c:y val="0.32042990817283573"/>
+          <c:w val="0.89019685039370078"/>
+          <c:h val="0.51009735278935009"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1176,7 +1252,1357 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Subject</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Analysis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>maths</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>phy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>oop</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dbms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF92-48CD-B3EB-2AE0E0162E02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>maths</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>phy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>oop</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dbms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF92-48CD-B3EB-2AE0E0162E02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fail</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>maths</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>phy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>oop</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dbms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BF92-48CD-B3EB-2AE0E0162E02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>maths</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>phy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>oop</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dbms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73333333333333328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BF92-48CD-B3EB-2AE0E0162E02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>maximum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>maths</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>phy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>oop</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dbms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$23:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BF92-48CD-B3EB-2AE0E0162E02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$18:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>maths</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>phy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>oop</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>foe</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dbms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$24:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BF92-48CD-B3EB-2AE0E0162E02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1257817583"/>
+        <c:axId val="1256676383"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1257817583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1256676383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1256676383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1257817583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1712,20 +3138,496 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1750,14 +3652,50 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483A605C-19C6-25B7-6045-1E2E29DF1FB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AAB85E5F-4773-496D-9883-21307E437DA4}" name="Table5" displayName="Table5" ref="A1:L16" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="3" tableBorderDxfId="8">
-  <autoFilter ref="A1:L16" xr:uid="{AAB85E5F-4773-496D-9883-21307E437DA4}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{86F44898-8CC8-4502-B7FD-ED840673C5C9}" name="ROLL NO" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AAB85E5F-4773-496D-9883-21307E437DA4}" name="Table5" displayName="Table5" ref="A1:R16" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:R16" xr:uid="{AAB85E5F-4773-496D-9883-21307E437DA4}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{86F44898-8CC8-4502-B7FD-ED840673C5C9}" name="ROLL NO" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{68F11D4D-DDC2-4C3E-884F-7F7B7AAC1892}" name="FIRSTNAME"/>
     <tableColumn id="3" xr3:uid="{260D2FFC-1B79-4F0F-8294-EBF35C7DCBAF}" name="LASTNAME"/>
     <tableColumn id="4" xr3:uid="{2F6BB503-5AA7-41D1-849C-418EC152A570}" name="MATHS"/>
@@ -1771,10 +3709,45 @@
     <tableColumn id="10" xr3:uid="{D49604ED-6B5B-4980-A227-2D4172D37520}" name="PERCENTAGE">
       <calculatedColumnFormula>I2*100/150</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6596F3DB-EA39-44AC-9E71-11A4018638F7}" name="Pass/Fail"/>
-    <tableColumn id="11" xr3:uid="{697A44E3-EAC8-481C-BFB1-4A9E35712CA6}" name="CITY" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{697A44E3-EAC8-481C-BFB1-4A9E35712CA6}" name="CITY" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{89ECCB93-3D1B-41AF-9E0E-D09887B98C01}" name="backlock" dataDxfId="8">
+      <calculatedColumnFormula>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{40BEC288-EFC2-4B73-8F7C-56C5D7A713F6}" name="pass/fail2" dataDxfId="7">
+      <calculatedColumnFormula>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{51A854A1-244D-4F6D-8DB1-DACA43C4813C}" name="upper" dataDxfId="6">
+      <calculatedColumnFormula>UPPER(Table5[[#This Row],[FIRSTNAME]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{6BFC03B9-0957-4393-AE9D-F09A97E63790}" name="lower" dataDxfId="5">
+      <calculatedColumnFormula>LOWER(Table5[[#This Row],[upper]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{BA751302-8DF5-45BB-BB50-6D8F632A1B39}" name="proper" dataDxfId="4">
+      <calculatedColumnFormula>PROPER(Table5[[#This Row],[lower]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{4A1BAE29-5F05-4807-9246-7A350D24824E}" name="concetenate" dataDxfId="3">
+      <calculatedColumnFormula>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{875C8D74-DB35-444C-818A-329797EF14F0}" name="grade" dataDxfId="2">
+      <calculatedColumnFormula>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08A3CDB1-91AA-4869-B80A-12785C0E1C76}" name="Table1" displayName="Table1" ref="C18:H24" totalsRowShown="0">
+  <autoFilter ref="C18:H24" xr:uid="{08A3CDB1-91AA-4869-B80A-12785C0E1C76}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4A751F8E-AFBC-47F3-84CD-3B2C77E2C0FF}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{B745073D-D446-40D6-8CB5-CB3E431983EB}" name="maths"/>
+    <tableColumn id="3" xr3:uid="{EE661420-1F55-4181-B2DE-7D724E070805}" name="phy"/>
+    <tableColumn id="4" xr3:uid="{E74332C6-8AA5-49A8-BFC2-5129053A4864}" name="oop"/>
+    <tableColumn id="5" xr3:uid="{D58BEAFC-51CD-423F-B2E4-114E23C17B82}" name="foe"/>
+    <tableColumn id="6" xr3:uid="{964563E6-A110-4602-859E-411800662C25}" name="dbms"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2075,10 +4048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C3714-5328-4CA8-ACD3-CF9C46683EE1}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2088,674 +4061,1225 @@
     <col min="3" max="3" width="20.21875" customWidth="1"/>
     <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="17" max="17" width="21.5546875" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1"/>
+      <c r="L1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>25</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>26</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>26</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>27</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>21</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <f>SUM(D2:H2)</f>
         <v>125</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <f>I2*100/150</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="L2" s="2">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v xml:space="preserve">VIRAL </v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v xml:space="preserve">viral </v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v xml:space="preserve">Viral </v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Viral   Chauhan</v>
+      </c>
+      <c r="R2" s="16" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>B</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>19</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>16</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>21</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <f>SUM(D3:H3)</f>
         <v>81</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <f t="shared" ref="J3:J16" si="0">I3*100/150</f>
         <v>54</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="15" t="s">
         <v>43</v>
       </c>
+      <c r="L3" s="15">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="15" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="N3" s="15" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v>JENISH</v>
+      </c>
+      <c r="O3" s="15" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v>jenish</v>
+      </c>
+      <c r="P3" s="15" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v>Jenish</v>
+      </c>
+      <c r="Q3" s="15" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Jenish  Detroja</v>
+      </c>
+      <c r="R3" s="17" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>f</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>11</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>12</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>15</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>17</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <f t="shared" ref="I4:I15" si="1">SUM(D4:H4)</f>
         <v>65</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <f t="shared" si="0"/>
         <v>43.333333333333336</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="K4" s="15" t="s">
         <v>44</v>
       </c>
+      <c r="L4" s="15">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="15" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="N4" s="15" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v>DARSHAL</v>
+      </c>
+      <c r="O4" s="15" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v>darshal</v>
+      </c>
+      <c r="P4" s="15" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v>Darshal</v>
+      </c>
+      <c r="Q4" s="15" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Darshal  madani</v>
+      </c>
+      <c r="R4" s="17" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>f</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>18</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>21</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>24</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>15</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>25</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <f t="shared" si="0"/>
         <v>68.666666666666671</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="K5" s="15" t="s">
         <v>42</v>
       </c>
+      <c r="L5" s="15">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="15" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="N5" s="15" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v xml:space="preserve">NIRAV </v>
+      </c>
+      <c r="O5" s="15" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v xml:space="preserve">nirav </v>
+      </c>
+      <c r="P5" s="15" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v xml:space="preserve">Nirav </v>
+      </c>
+      <c r="Q5" s="15" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Nirav   Vekariya</v>
+      </c>
+      <c r="R5" s="17" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>B</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>24</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>27</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="L6" s="15">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>2</v>
+      </c>
+      <c r="M6" s="15" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="N6" s="15" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v>VIVEK</v>
+      </c>
+      <c r="O6" s="15" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v>vivek</v>
+      </c>
+      <c r="P6" s="15" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v>Vivek</v>
+      </c>
+      <c r="Q6" s="15" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Vivek  Bhoraniya</v>
+      </c>
+      <c r="R6" s="17" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>f</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>30</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>29</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>27</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>25</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>24</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="K7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="1"/>
+      <c r="L7" s="15">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="15" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="N7" s="15" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v>SHOURYA</v>
+      </c>
+      <c r="O7" s="15" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v>shourya</v>
+      </c>
+      <c r="P7" s="15" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v>Shourya</v>
+      </c>
+      <c r="Q7" s="15" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Shourya  Vachhani</v>
+      </c>
+      <c r="R7" s="17" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>A</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>12</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>13</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>24</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>17</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>50.666666666666664</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="K8" s="15" t="s">
         <v>42</v>
       </c>
+      <c r="L8" s="15">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="15" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="N8" s="15" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v>RAHIL</v>
+      </c>
+      <c r="O8" s="15" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v>rahil</v>
+      </c>
+      <c r="P8" s="15" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v>Rahil</v>
+      </c>
+      <c r="Q8" s="15" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Rahil  Mavani</v>
+      </c>
+      <c r="R8" s="17" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>f</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>25</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>14</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>24</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>16</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>62.666666666666664</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="7" t="s">
+      <c r="K9" s="15" t="s">
         <v>43</v>
       </c>
+      <c r="L9" s="15">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="15" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="N9" s="15" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v>ABHISHEK</v>
+      </c>
+      <c r="O9" s="15" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v>abhishek</v>
+      </c>
+      <c r="P9" s="15" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v>Abhishek</v>
+      </c>
+      <c r="Q9" s="15" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Abhishek  Dhamsaniya</v>
+      </c>
+      <c r="R9" s="17" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>B</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>12</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>19</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>30</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>24</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>56.666666666666664</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="K10" s="15" t="s">
         <v>44</v>
       </c>
+      <c r="L10" s="15">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="15" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="N10" s="15" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v>KIRTI</v>
+      </c>
+      <c r="O10" s="15" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v>kirti</v>
+      </c>
+      <c r="P10" s="15" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v>Kirti</v>
+      </c>
+      <c r="Q10" s="15" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Kirti  Timbadiya</v>
+      </c>
+      <c r="R10" s="17" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>f</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>21</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>24</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>22</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>14</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>25</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>70.666666666666671</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="7" t="s">
+      <c r="K11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="2"/>
+      <c r="L11" s="15">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="15" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="N11" s="15" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v>PREM</v>
+      </c>
+      <c r="O11" s="15" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v>prem</v>
+      </c>
+      <c r="P11" s="15" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v>Prem</v>
+      </c>
+      <c r="Q11" s="15" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Prem  khunt</v>
+      </c>
+      <c r="R11" s="17" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>B</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>4</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>15</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>27.333333333333332</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="K12" s="15" t="s">
         <v>43</v>
       </c>
+      <c r="L12" s="15">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>4</v>
+      </c>
+      <c r="M12" s="15" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="N12" s="15" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v>AARYAN</v>
+      </c>
+      <c r="O12" s="15" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v>aaryan</v>
+      </c>
+      <c r="P12" s="15" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v>Aaryan</v>
+      </c>
+      <c r="Q12" s="15" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Aaryan  Jotangiya</v>
+      </c>
+      <c r="R12" s="17" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>f</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>10</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>14</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>10</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>24</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>10</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>45.333333333333336</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="K13" s="15" t="s">
         <v>44</v>
       </c>
+      <c r="L13" s="15">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>3</v>
+      </c>
+      <c r="M13" s="15" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="N13" s="15" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v>HET</v>
+      </c>
+      <c r="O13" s="15" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v>het</v>
+      </c>
+      <c r="P13" s="15" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v>Het</v>
+      </c>
+      <c r="Q13" s="15" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Het  Modi</v>
+      </c>
+      <c r="R13" s="17" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>f</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>21</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>22</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>14</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>19</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>24</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="K14" s="15" t="s">
         <v>42</v>
       </c>
+      <c r="L14" s="15">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="15" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="N14" s="15" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v>GANDO</v>
+      </c>
+      <c r="O14" s="15" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v>gando</v>
+      </c>
+      <c r="P14" s="15" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v>Gando</v>
+      </c>
+      <c r="Q14" s="15" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Gando  Yagnik</v>
+      </c>
+      <c r="R14" s="17" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>B</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>15</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>24</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>27</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>18</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>25</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>72.666666666666671</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="K15" s="15" t="s">
         <v>43</v>
       </c>
+      <c r="L15" s="15">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="15" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>pass</v>
+      </c>
+      <c r="N15" s="15" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v>LADU</v>
+      </c>
+      <c r="O15" s="15" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v>ladu</v>
+      </c>
+      <c r="P15" s="15" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v>Ladu</v>
+      </c>
+      <c r="Q15" s="15" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Ladu  Ledy</v>
+      </c>
+      <c r="R15" s="17" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>B</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="5">
         <v>27</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="5">
         <v>25</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="5">
         <f>SUM(D16:H16)</f>
         <v>53</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="5">
         <f t="shared" si="0"/>
         <v>35.333333333333336</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="10" t="s">
+      <c r="K16" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="L16" s="5">
+        <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
+        <v>3</v>
+      </c>
+      <c r="M16" s="5" t="str">
+        <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
+        <v>fail</v>
+      </c>
+      <c r="N16" s="5" t="str">
+        <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
+        <v>PADU</v>
+      </c>
+      <c r="O16" s="5" t="str">
+        <f>LOWER(Table5[[#This Row],[upper]])</f>
+        <v>padu</v>
+      </c>
+      <c r="P16" s="5" t="str">
+        <f>PROPER(Table5[[#This Row],[lower]])</f>
+        <v>Padu</v>
+      </c>
+      <c r="Q16" s="5" t="str">
+        <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
+        <v>Padu  Bro</v>
+      </c>
+      <c r="R16" s="18" t="str">
+        <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
+        <v>f</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="13">
+        <f>COUNTA(Table5[MATHS])</f>
+        <v>15</v>
+      </c>
+      <c r="E19" s="13">
+        <f>COUNTA(Table5[PHY])</f>
+        <v>15</v>
+      </c>
+      <c r="F19" s="13">
+        <f>COUNTA(Table5[OOP])</f>
+        <v>15</v>
+      </c>
+      <c r="G19" s="13">
+        <f>COUNTA(Table5[FOE])</f>
+        <v>15</v>
+      </c>
+      <c r="H19" s="13">
+        <f>COUNTA(Table5[DBMS])</f>
+        <v>15</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <f>COUNTIF(Table5[MATHS],"&gt;=12")</f>
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <f>COUNTIF(Table5[PHY],"&gt;=12")</f>
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <f>COUNTIF(Table5[OOP],"&gt;=12")</f>
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <f>COUNTIF(Table5[FOE],"&gt;=12")</f>
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <f>COUNTIF(Table5[DBMS],"&gt;=12")</f>
+        <v>13</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="16"/>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <f>D19-D20</f>
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="E21:H21" si="2">E19-E20</f>
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C22" s="15"/>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="14">
+        <f>D20/D19</f>
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" ref="E22:H22" si="3">E20/E19</f>
+        <v>0.8</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="3"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="3"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="3"/>
+        <v>0.8666666666666667</v>
+      </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G23" s="1"/>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <f>MAX(Table5[MATHS])</f>
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <f>MAX(Table5[PHY])</f>
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <f>MAX(Table5[OOP])</f>
+        <v>27</v>
+      </c>
+      <c r="G23">
+        <f>MAX(Table5[FOE])</f>
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <f>MAX(Table5[DBMS])</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <f>MIN(Table5[MATHS])</f>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <f>MIN(Table5[PHY])</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>MIN(Table5[OOP])</f>
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <f>MIN(Table5[FOE])</f>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f>MIN(Table5[DBMS])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="15"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:H16">
@@ -2763,7 +5287,7 @@
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K16">
+  <conditionalFormatting sqref="J2:J16">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>40</formula>
     </cfRule>
@@ -2771,8 +5295,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -2797,4 +5322,719 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4C397-8715-4A34-AC4D-15DA692E96AA}">
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(A2,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Darshal</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>madani</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP(A2,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <f>VLOOKUP(A2,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <f>VLOOKUP(A2,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <f>VLOOKUP(A2,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <f>VLOOKUP(A2,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <f>VLOOKUP(A2,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>65</v>
+      </c>
+      <c r="J2">
+        <f>VLOOKUP(A2,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>43.333333333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP(A3,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v xml:space="preserve">Nirav </v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(A3,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Vekariya</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP(A3,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <f>VLOOKUP(A3,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP(A3,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <f>VLOOKUP(A3,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <f>VLOOKUP(A3,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <f>VLOOKUP(A3,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>103</v>
+      </c>
+      <c r="J3">
+        <f>VLOOKUP(A3,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>68.666666666666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP(A4,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Abhishek</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(A4,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Dhamsaniya</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP(A4,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <f>VLOOKUP(A4,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(A4,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <f>VLOOKUP(A4,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <f>VLOOKUP(A4,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <f>VLOOKUP(A4,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>94</v>
+      </c>
+      <c r="J4">
+        <f>VLOOKUP(A4,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>62.666666666666664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP(A5,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Kirti</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(A5,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Timbadiya</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP(A5,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <f>VLOOKUP(A5,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>19</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(A5,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>AB</v>
+      </c>
+      <c r="G5">
+        <f>VLOOKUP(A5,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <f>VLOOKUP(A5,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <f>VLOOKUP(A5,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>85</v>
+      </c>
+      <c r="J5">
+        <f>VLOOKUP(A5,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>56.666666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="str">
+        <f>VLOOKUP(A6,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v xml:space="preserve">Viral </v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(A6,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Chauhan</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP(A6,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <f>VLOOKUP(A6,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(A6,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <f>VLOOKUP(A6,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <f>VLOOKUP(A6,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP(A6,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>125</v>
+      </c>
+      <c r="J6">
+        <f>VLOOKUP(A6,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <f>VLOOKUP(A7,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Vivek</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(A7,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Bhoraniya</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(A7,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>AB</v>
+      </c>
+      <c r="E7">
+        <f>VLOOKUP(A7,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f>VLOOKUP(A7,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <f>VLOOKUP(A7,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <f>VLOOKUP(A7,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <f>VLOOKUP(A7,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>86</v>
+      </c>
+      <c r="J7">
+        <f>VLOOKUP(A7,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>57.333333333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="str">
+        <f>VLOOKUP(A8,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Jenish</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(A8,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Detroja</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP(A8,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <f>VLOOKUP(A8,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP(A8,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>25</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(A8,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>AB</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP(A8,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <f>VLOOKUP(A8,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>81</v>
+      </c>
+      <c r="J8">
+        <f>VLOOKUP(A8,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="str">
+        <f>VLOOKUP(A9,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Shourya</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(A9,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Vachhani</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP(A9,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <f>VLOOKUP(A9,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP(A9,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <f>VLOOKUP(A9,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <f>VLOOKUP(A9,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <f>VLOOKUP(A9,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>135</v>
+      </c>
+      <c r="J9">
+        <f>VLOOKUP(A9,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="str">
+        <f>VLOOKUP(A10,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Vivek</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(A10,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Bhoraniya</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(A10,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>AB</v>
+      </c>
+      <c r="E10">
+        <f>VLOOKUP(A10,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP(A10,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <f>VLOOKUP(A10,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <f>VLOOKUP(A10,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <f>VLOOKUP(A10,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>86</v>
+      </c>
+      <c r="J10">
+        <f>VLOOKUP(A10,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>57.333333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(A11,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Rahil</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(A11,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Mavani</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP(A11,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f>VLOOKUP(A11,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP(A11,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <f>VLOOKUP(A11,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>24</v>
+      </c>
+      <c r="H11">
+        <f>VLOOKUP(A11,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <f>VLOOKUP(A11,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>76</v>
+      </c>
+      <c r="J11">
+        <f>VLOOKUP(A11,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>50.666666666666664</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="str">
+        <f>VLOOKUP(A12,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Het</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(A12,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Modi</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP(A12,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP(A12,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP(A12,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f>VLOOKUP(A12,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <f>VLOOKUP(A12,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <f>VLOOKUP(A12,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>68</v>
+      </c>
+      <c r="J12">
+        <f>VLOOKUP(A12,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>45.333333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="str">
+        <f>VLOOKUP(A13,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Prem</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(A13,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>khunt</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP(A13,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(A13,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP(A13,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <f>VLOOKUP(A13,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>14</v>
+      </c>
+      <c r="H13">
+        <f>VLOOKUP(A13,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <f>VLOOKUP(A13,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>106</v>
+      </c>
+      <c r="J13">
+        <f>VLOOKUP(A13,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>70.666666666666671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>VLOOKUP(A14,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Gando</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(A14,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Yagnik</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP(A14,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(A14,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP(A14,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <f>VLOOKUP(A14,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <f>VLOOKUP(A14,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <f>VLOOKUP(A14,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <f>VLOOKUP(A14,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="str">
+        <f>VLOOKUP(A15,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Aaryan</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP(A15,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Jotangiya</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP(A15,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(A15,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(A15,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <f>VLOOKUP(A15,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f>VLOOKUP(A15,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>10</v>
+      </c>
+      <c r="I15">
+        <f>VLOOKUP(A15,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>41</v>
+      </c>
+      <c r="J15">
+        <f>VLOOKUP(A15,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>27.333333333333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>VLOOKUP(A16,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Padu</v>
+      </c>
+      <c r="C16" t="str">
+        <f>VLOOKUP(A16,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Bro</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP(A16,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP(A16,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP(A16,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>27</v>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(A16,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>AB</v>
+      </c>
+      <c r="H16">
+        <f>VLOOKUP(A16,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <f>VLOOKUP(A16,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>53</v>
+      </c>
+      <c r="J16">
+        <f>VLOOKUP(A16,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>35.333333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="str">
+        <f>VLOOKUP(A17,Table5[[ROLL NO]:[pass/fail2]],2,0)</f>
+        <v>Ladu</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP(A17,Table5[[ROLL NO]:[pass/fail2]],3,0)</f>
+        <v>Ledy</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP(A17,Table5[[ROLL NO]:[pass/fail2]],4,0)</f>
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP(A17,Table5[[ROLL NO]:[pass/fail2]],5,0)</f>
+        <v>24</v>
+      </c>
+      <c r="F17">
+        <f>VLOOKUP(A17,Table5[[ROLL NO]:[pass/fail2]],6,0)</f>
+        <v>27</v>
+      </c>
+      <c r="G17">
+        <f>VLOOKUP(A17,Table5[[ROLL NO]:[pass/fail2]],7,0)</f>
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <f>VLOOKUP(A17,Table5[[ROLL NO]:[pass/fail2]],8,0)</f>
+        <v>25</v>
+      </c>
+      <c r="I17">
+        <f>VLOOKUP(A17,Table5[[ROLL NO]:[pass/fail2]],9,0)</f>
+        <v>109</v>
+      </c>
+      <c r="J17">
+        <f>VLOOKUP(A17,Table5[[ROLL NO]:[pass/fail2]],10,0)</f>
+        <v>72.666666666666671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MS Excel/Prectical-1(MS Excel).xlsx
+++ b/MS Excel/Prectical-1(MS Excel).xlsx
@@ -8,14 +8,53 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darshan University\sem-2\Prectical\OAT\MS Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C66A3A-2DFC-4CDE-9C4B-6A90F5C26EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40142688-CA19-47B4-BAE7-CEA7277AB7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{324C9FC4-41C4-40BF-9C36-47FC7EF2E87C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{324C9FC4-41C4-40BF-9C36-47FC7EF2E87C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet4!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet4!$I$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet4!$J$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet4!$J$2:$J$12</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet4!$L$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet4!$L$2:$L$12</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet4!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet4!$I$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet4!$I$2:$I$12</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet4!$J$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet4!$J$2:$J$12</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet4!$L$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet4!$I$2:$I$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet4!$L$2:$L$12</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet4!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet4!$I$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet4!$I$2:$I$12</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet4!$J$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet4!$J$2:$J$12</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet4!$L$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Sheet4!$L$2:$L$12</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Sheet4!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Sheet4!$I$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet4!$J$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Sheet4!$I$2:$I$12</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Sheet4!$J$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Sheet4!$J$2:$J$12</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Sheet4!$L$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Sheet4!$L$2:$L$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet4!$J$2:$J$12</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet4!$L$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet4!$L$2:$L$12</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet4!$B$2:$B$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet4!$I$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet4!$I$2:$I$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="86">
   <si>
     <t>ROLL NO</t>
   </si>
@@ -228,6 +267,72 @@
   <si>
     <t>Column1</t>
   </si>
+  <si>
+    <t>SrNO</t>
+  </si>
+  <si>
+    <t>Basic Salary</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>Gross Salary</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Viral</t>
+  </si>
+  <si>
+    <t>Bala</t>
+  </si>
+  <si>
+    <t>Mayur</t>
+  </si>
+  <si>
+    <t>Nirav</t>
+  </si>
+  <si>
+    <t>SrNo</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>absent</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>31-03-2023</t>
+  </si>
+  <si>
+    <t>01-04-2023</t>
+  </si>
+  <si>
+    <t>02-04-2023</t>
+  </si>
+  <si>
+    <t>03-04-2023</t>
+  </si>
+  <si>
+    <t>04-04-2023</t>
+  </si>
+  <si>
+    <t>05-04-2023</t>
+  </si>
 </sst>
 </file>
 
@@ -261,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +379,14 @@
         <bgColor theme="6" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -443,12 +554,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,23 +608,46 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -500,6 +664,287 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2562,6 +3007,1968 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>salary analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Basic Salary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$A$2:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Viral</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Jenish</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Bala</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Mayur</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Nirav</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77D5-48C9-935B-0506357643F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$A$2:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Viral</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Jenish</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Bala</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Mayur</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Nirav</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-77D5-48C9-935B-0506357643F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$A$2:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Viral</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Jenish</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Bala</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Mayur</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Nirav</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3360.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5950</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-77D5-48C9-935B-0506357643F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gross Salary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet3!$A$2:$B$6</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Viral</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Jenish</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Bala</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Mayur</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Nirav</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14640</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46550</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63480</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-77D5-48C9-935B-0506357643F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1531985616"/>
+        <c:axId val="1534090640"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1531985616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1534090640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1534090640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1531985616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Attendence </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>present</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet4!$B$2:$B$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet4!$B$2:$B$11,Sheet4!$B$13:$B$17)</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Viral</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jenish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bala</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mayur</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Darshal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nirav</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vivek</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ladu</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Kirti</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Rahil</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>total</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>present</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>absent</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet4!$I$2:$I$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet4!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B35B-441B-A99C-40DB5EC451F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>absent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet4!$B$2:$B$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet4!$B$2:$B$11,Sheet4!$B$13:$B$17)</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Viral</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jenish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bala</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mayur</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Darshal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nirav</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vivek</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ladu</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Kirti</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Rahil</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>total</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>present</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>absent</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet4!$J$2:$J$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet4!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B35B-441B-A99C-40DB5EC451F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet4!$B$2:$B$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet4!$B$2:$B$11,Sheet4!$B$13:$B$17)</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Viral</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Jenish</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bala</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mayur</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Darshal</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Nirav</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Vivek</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ladu</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Kirti</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Rahil</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>total</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>present</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>absent</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet4!$L$2:$L$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet4!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>83.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.333333333333343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B35B-441B-A99C-40DB5EC451F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="1418667504"/>
+        <c:axId val="1560551536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1418667504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1560551536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1560551536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418667504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2642,6 +5049,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
@@ -3609,6 +6096,1031 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3691,11 +7203,93 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB95A27F-A420-095F-7669-5233D3A32AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144378</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>449178</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60157</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F865B0-038F-0A82-944C-FF1726DA6EA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AAB85E5F-4773-496D-9883-21307E437DA4}" name="Table5" displayName="Table5" ref="A1:R16" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AAB85E5F-4773-496D-9883-21307E437DA4}" name="Table5" displayName="Table5" ref="A1:R16" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="A1:R16" xr:uid="{AAB85E5F-4773-496D-9883-21307E437DA4}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{86F44898-8CC8-4502-B7FD-ED840673C5C9}" name="ROLL NO" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{86F44898-8CC8-4502-B7FD-ED840673C5C9}" name="ROLL NO" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{68F11D4D-DDC2-4C3E-884F-7F7B7AAC1892}" name="FIRSTNAME"/>
     <tableColumn id="3" xr3:uid="{260D2FFC-1B79-4F0F-8294-EBF35C7DCBAF}" name="LASTNAME"/>
     <tableColumn id="4" xr3:uid="{2F6BB503-5AA7-41D1-849C-418EC152A570}" name="MATHS"/>
@@ -3709,26 +7303,26 @@
     <tableColumn id="10" xr3:uid="{D49604ED-6B5B-4980-A227-2D4172D37520}" name="PERCENTAGE">
       <calculatedColumnFormula>I2*100/150</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{697A44E3-EAC8-481C-BFB1-4A9E35712CA6}" name="CITY" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{89ECCB93-3D1B-41AF-9E0E-D09887B98C01}" name="backlock" dataDxfId="8">
+    <tableColumn id="11" xr3:uid="{697A44E3-EAC8-481C-BFB1-4A9E35712CA6}" name="CITY" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{89ECCB93-3D1B-41AF-9E0E-D09887B98C01}" name="backlock" dataDxfId="22">
       <calculatedColumnFormula>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{40BEC288-EFC2-4B73-8F7C-56C5D7A713F6}" name="pass/fail2" dataDxfId="7">
+    <tableColumn id="14" xr3:uid="{40BEC288-EFC2-4B73-8F7C-56C5D7A713F6}" name="pass/fail2" dataDxfId="21">
       <calculatedColumnFormula>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{51A854A1-244D-4F6D-8DB1-DACA43C4813C}" name="upper" dataDxfId="6">
+    <tableColumn id="15" xr3:uid="{51A854A1-244D-4F6D-8DB1-DACA43C4813C}" name="upper" dataDxfId="20">
       <calculatedColumnFormula>UPPER(Table5[[#This Row],[FIRSTNAME]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{6BFC03B9-0957-4393-AE9D-F09A97E63790}" name="lower" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{6BFC03B9-0957-4393-AE9D-F09A97E63790}" name="lower" dataDxfId="19">
       <calculatedColumnFormula>LOWER(Table5[[#This Row],[upper]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{BA751302-8DF5-45BB-BB50-6D8F632A1B39}" name="proper" dataDxfId="4">
+    <tableColumn id="17" xr3:uid="{BA751302-8DF5-45BB-BB50-6D8F632A1B39}" name="proper" dataDxfId="18">
       <calculatedColumnFormula>PROPER(Table5[[#This Row],[lower]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{4A1BAE29-5F05-4807-9246-7A350D24824E}" name="concetenate" dataDxfId="3">
+    <tableColumn id="18" xr3:uid="{4A1BAE29-5F05-4807-9246-7A350D24824E}" name="concetenate" dataDxfId="17">
       <calculatedColumnFormula>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{875C8D74-DB35-444C-818A-329797EF14F0}" name="grade" dataDxfId="2">
+    <tableColumn id="19" xr3:uid="{875C8D74-DB35-444C-818A-329797EF14F0}" name="grade" dataDxfId="16">
       <calculatedColumnFormula>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3748,6 +7342,56 @@
     <tableColumn id="6" xr3:uid="{964563E6-A110-4602-859E-411800662C25}" name="dbms"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4592787B-7FD7-4163-A877-9FEE9906B247}" name="Table2" displayName="Table2" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6" xr:uid="{4592787B-7FD7-4163-A877-9FEE9906B247}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{36EDFB7F-3553-4310-852A-07E8FE7EDE79}" name="SrNO"/>
+    <tableColumn id="2" xr3:uid="{5598EB55-E329-4EE8-BF0A-F37011CFA8B2}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{7B5A34DA-0834-4528-9F21-A746F15CCC8A}" name="Basic Salary"/>
+    <tableColumn id="4" xr3:uid="{F77CB153-D495-430B-B92C-926692152705}" name="DA">
+      <calculatedColumnFormula>IF(C2&lt;20000,C2*10%,IF(C2&lt;30000,C2*12%,IF(C2&lt;40000,C2*16%,IF(C2&lt;50000,C2*18%,C2*20%))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{BEDA614A-E73E-4CBB-ADBD-578900E5B524}" name="HRA">
+      <calculatedColumnFormula>IF(C2&lt;20000,C2*12%,IF(C2&lt;30000,C2*14%,IF(C2&lt;40000,C2*17%,IF(C2&lt;50000,C2*20%,C2*25%))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{221F9F84-0C61-4954-81A3-0865B5BAEE1D}" name="Gross Salary">
+      <calculatedColumnFormula>SUM(C2:E2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EFAF0E12-12BE-42BC-A022-0DB7A1A2A6D8}" name="Table3" displayName="Table3" ref="A1:L11" totalsRowShown="0">
+  <autoFilter ref="A1:L11" xr:uid="{EFAF0E12-12BE-42BC-A022-0DB7A1A2A6D8}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{46F5101C-C517-44C5-8BCB-5828E5895B2E}" name="SrNo" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{DC1260CF-6CFA-4D17-88FF-5B00702C67C8}" name="Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{32F86907-4ABE-488F-98A5-5C8DB68DB5BF}" name="31-03-2023" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{33CF747B-DC48-48AB-9C8A-2B1D51596A37}" name="01-04-2023" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{A74872A3-54BD-4657-8A7C-E12B117BA7B6}" name="02-04-2023" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3346E1B5-4D2C-4248-912B-F95852835782}" name="03-04-2023" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{6FBE0B42-709D-49BF-BBCB-93DF3993C270}" name="04-04-2023" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{BDB9376E-39E0-4D53-9A7D-2877434F27A3}" name="05-04-2023" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{27C19880-A498-41BF-8BCA-617B04403D9E}" name="present" dataDxfId="7">
+      <calculatedColumnFormula>COUNTIF(C2:H2,"p")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A7C0B15B-3D54-49F1-B2A2-299B8979438B}" name="absent" dataDxfId="6">
+      <calculatedColumnFormula>COUNTIF(C2:H2,"a")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{E1C00870-2B17-4683-A535-DD00EEE54FA1}" name="days" dataDxfId="5">
+      <calculatedColumnFormula>COUNTA(C2:H2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{D9618C06-FCC5-47B8-B922-77A3C1179B93}" name="percentage" dataDxfId="4" dataCellStyle="Percent">
+      <calculatedColumnFormula>I2/K2*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4048,7 +7692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952C3714-5328-4CA8-ACD3-CF9C46683EE1}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -4099,25 +7743,25 @@
       <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4181,7 +7825,7 @@
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Viral   Chauhan</v>
       </c>
-      <c r="R2" s="16" t="str">
+      <c r="R2" s="13" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>B</v>
       </c>
@@ -4219,34 +7863,34 @@
         <f t="shared" ref="J3:J16" si="0">I3*100/150</f>
         <v>54</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3">
         <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
         <v>1</v>
       </c>
-      <c r="M3" s="15" t="str">
+      <c r="M3" t="str">
         <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
         <v>fail</v>
       </c>
-      <c r="N3" s="15" t="str">
+      <c r="N3" t="str">
         <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
         <v>JENISH</v>
       </c>
-      <c r="O3" s="15" t="str">
+      <c r="O3" t="str">
         <f>LOWER(Table5[[#This Row],[upper]])</f>
         <v>jenish</v>
       </c>
-      <c r="P3" s="15" t="str">
+      <c r="P3" t="str">
         <f>PROPER(Table5[[#This Row],[lower]])</f>
         <v>Jenish</v>
       </c>
-      <c r="Q3" s="15" t="str">
+      <c r="Q3" t="str">
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Jenish  Detroja</v>
       </c>
-      <c r="R3" s="17" t="str">
+      <c r="R3" s="14" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>f</v>
       </c>
@@ -4284,34 +7928,34 @@
         <f t="shared" si="0"/>
         <v>43.333333333333336</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4">
         <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
         <v>2</v>
       </c>
-      <c r="M4" s="15" t="str">
+      <c r="M4" t="str">
         <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
         <v>fail</v>
       </c>
-      <c r="N4" s="15" t="str">
+      <c r="N4" t="str">
         <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
         <v>DARSHAL</v>
       </c>
-      <c r="O4" s="15" t="str">
+      <c r="O4" t="str">
         <f>LOWER(Table5[[#This Row],[upper]])</f>
         <v>darshal</v>
       </c>
-      <c r="P4" s="15" t="str">
+      <c r="P4" t="str">
         <f>PROPER(Table5[[#This Row],[lower]])</f>
         <v>Darshal</v>
       </c>
-      <c r="Q4" s="15" t="str">
+      <c r="Q4" t="str">
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Darshal  madani</v>
       </c>
-      <c r="R4" s="17" t="str">
+      <c r="R4" s="14" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>f</v>
       </c>
@@ -4349,34 +7993,34 @@
         <f t="shared" si="0"/>
         <v>68.666666666666671</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5">
         <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
         <v>0</v>
       </c>
-      <c r="M5" s="15" t="str">
+      <c r="M5" t="str">
         <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="N5" s="15" t="str">
+      <c r="N5" t="str">
         <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
         <v xml:space="preserve">NIRAV </v>
       </c>
-      <c r="O5" s="15" t="str">
+      <c r="O5" t="str">
         <f>LOWER(Table5[[#This Row],[upper]])</f>
         <v xml:space="preserve">nirav </v>
       </c>
-      <c r="P5" s="15" t="str">
+      <c r="P5" t="str">
         <f>PROPER(Table5[[#This Row],[lower]])</f>
         <v xml:space="preserve">Nirav </v>
       </c>
-      <c r="Q5" s="15" t="str">
+      <c r="Q5" t="str">
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Nirav   Vekariya</v>
       </c>
-      <c r="R5" s="17" t="str">
+      <c r="R5" s="14" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>B</v>
       </c>
@@ -4414,34 +8058,34 @@
         <f t="shared" si="0"/>
         <v>57.333333333333336</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6">
         <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
         <v>2</v>
       </c>
-      <c r="M6" s="15" t="str">
+      <c r="M6" t="str">
         <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
         <v>fail</v>
       </c>
-      <c r="N6" s="15" t="str">
+      <c r="N6" t="str">
         <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
         <v>VIVEK</v>
       </c>
-      <c r="O6" s="15" t="str">
+      <c r="O6" t="str">
         <f>LOWER(Table5[[#This Row],[upper]])</f>
         <v>vivek</v>
       </c>
-      <c r="P6" s="15" t="str">
+      <c r="P6" t="str">
         <f>PROPER(Table5[[#This Row],[lower]])</f>
         <v>Vivek</v>
       </c>
-      <c r="Q6" s="15" t="str">
+      <c r="Q6" t="str">
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Vivek  Bhoraniya</v>
       </c>
-      <c r="R6" s="17" t="str">
+      <c r="R6" s="14" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>f</v>
       </c>
@@ -4479,34 +8123,34 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7">
         <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
         <v>0</v>
       </c>
-      <c r="M7" s="15" t="str">
+      <c r="M7" t="str">
         <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="N7" s="15" t="str">
+      <c r="N7" t="str">
         <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
         <v>SHOURYA</v>
       </c>
-      <c r="O7" s="15" t="str">
+      <c r="O7" t="str">
         <f>LOWER(Table5[[#This Row],[upper]])</f>
         <v>shourya</v>
       </c>
-      <c r="P7" s="15" t="str">
+      <c r="P7" t="str">
         <f>PROPER(Table5[[#This Row],[lower]])</f>
         <v>Shourya</v>
       </c>
-      <c r="Q7" s="15" t="str">
+      <c r="Q7" t="str">
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Shourya  Vachhani</v>
       </c>
-      <c r="R7" s="17" t="str">
+      <c r="R7" s="14" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>A</v>
       </c>
@@ -4544,34 +8188,34 @@
         <f t="shared" si="0"/>
         <v>50.666666666666664</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8">
         <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
         <v>1</v>
       </c>
-      <c r="M8" s="15" t="str">
+      <c r="M8" t="str">
         <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
         <v>fail</v>
       </c>
-      <c r="N8" s="15" t="str">
+      <c r="N8" t="str">
         <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
         <v>RAHIL</v>
       </c>
-      <c r="O8" s="15" t="str">
+      <c r="O8" t="str">
         <f>LOWER(Table5[[#This Row],[upper]])</f>
         <v>rahil</v>
       </c>
-      <c r="P8" s="15" t="str">
+      <c r="P8" t="str">
         <f>PROPER(Table5[[#This Row],[lower]])</f>
         <v>Rahil</v>
       </c>
-      <c r="Q8" s="15" t="str">
+      <c r="Q8" t="str">
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Rahil  Mavani</v>
       </c>
-      <c r="R8" s="17" t="str">
+      <c r="R8" s="14" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>f</v>
       </c>
@@ -4609,34 +8253,34 @@
         <f t="shared" si="0"/>
         <v>62.666666666666664</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9">
         <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
         <v>0</v>
       </c>
-      <c r="M9" s="15" t="str">
+      <c r="M9" t="str">
         <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="N9" s="15" t="str">
+      <c r="N9" t="str">
         <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
         <v>ABHISHEK</v>
       </c>
-      <c r="O9" s="15" t="str">
+      <c r="O9" t="str">
         <f>LOWER(Table5[[#This Row],[upper]])</f>
         <v>abhishek</v>
       </c>
-      <c r="P9" s="15" t="str">
+      <c r="P9" t="str">
         <f>PROPER(Table5[[#This Row],[lower]])</f>
         <v>Abhishek</v>
       </c>
-      <c r="Q9" s="15" t="str">
+      <c r="Q9" t="str">
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Abhishek  Dhamsaniya</v>
       </c>
-      <c r="R9" s="17" t="str">
+      <c r="R9" s="14" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>B</v>
       </c>
@@ -4674,34 +8318,34 @@
         <f t="shared" si="0"/>
         <v>56.666666666666664</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10">
         <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
         <v>1</v>
       </c>
-      <c r="M10" s="15" t="str">
+      <c r="M10" t="str">
         <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
         <v>fail</v>
       </c>
-      <c r="N10" s="15" t="str">
+      <c r="N10" t="str">
         <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
         <v>KIRTI</v>
       </c>
-      <c r="O10" s="15" t="str">
+      <c r="O10" t="str">
         <f>LOWER(Table5[[#This Row],[upper]])</f>
         <v>kirti</v>
       </c>
-      <c r="P10" s="15" t="str">
+      <c r="P10" t="str">
         <f>PROPER(Table5[[#This Row],[lower]])</f>
         <v>Kirti</v>
       </c>
-      <c r="Q10" s="15" t="str">
+      <c r="Q10" t="str">
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Kirti  Timbadiya</v>
       </c>
-      <c r="R10" s="17" t="str">
+      <c r="R10" s="14" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>f</v>
       </c>
@@ -4739,34 +8383,34 @@
         <f t="shared" si="0"/>
         <v>70.666666666666671</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11">
         <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
         <v>0</v>
       </c>
-      <c r="M11" s="15" t="str">
+      <c r="M11" t="str">
         <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="N11" s="15" t="str">
+      <c r="N11" t="str">
         <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
         <v>PREM</v>
       </c>
-      <c r="O11" s="15" t="str">
+      <c r="O11" t="str">
         <f>LOWER(Table5[[#This Row],[upper]])</f>
         <v>prem</v>
       </c>
-      <c r="P11" s="15" t="str">
+      <c r="P11" t="str">
         <f>PROPER(Table5[[#This Row],[lower]])</f>
         <v>Prem</v>
       </c>
-      <c r="Q11" s="15" t="str">
+      <c r="Q11" t="str">
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Prem  khunt</v>
       </c>
-      <c r="R11" s="17" t="str">
+      <c r="R11" s="14" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>B</v>
       </c>
@@ -4804,34 +8448,34 @@
         <f t="shared" si="0"/>
         <v>27.333333333333332</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12">
         <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
         <v>4</v>
       </c>
-      <c r="M12" s="15" t="str">
+      <c r="M12" t="str">
         <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
         <v>fail</v>
       </c>
-      <c r="N12" s="15" t="str">
+      <c r="N12" t="str">
         <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
         <v>AARYAN</v>
       </c>
-      <c r="O12" s="15" t="str">
+      <c r="O12" t="str">
         <f>LOWER(Table5[[#This Row],[upper]])</f>
         <v>aaryan</v>
       </c>
-      <c r="P12" s="15" t="str">
+      <c r="P12" t="str">
         <f>PROPER(Table5[[#This Row],[lower]])</f>
         <v>Aaryan</v>
       </c>
-      <c r="Q12" s="15" t="str">
+      <c r="Q12" t="str">
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Aaryan  Jotangiya</v>
       </c>
-      <c r="R12" s="17" t="str">
+      <c r="R12" s="14" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>f</v>
       </c>
@@ -4869,34 +8513,34 @@
         <f t="shared" si="0"/>
         <v>45.333333333333336</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13">
         <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
         <v>3</v>
       </c>
-      <c r="M13" s="15" t="str">
+      <c r="M13" t="str">
         <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
         <v>fail</v>
       </c>
-      <c r="N13" s="15" t="str">
+      <c r="N13" t="str">
         <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
         <v>HET</v>
       </c>
-      <c r="O13" s="15" t="str">
+      <c r="O13" t="str">
         <f>LOWER(Table5[[#This Row],[upper]])</f>
         <v>het</v>
       </c>
-      <c r="P13" s="15" t="str">
+      <c r="P13" t="str">
         <f>PROPER(Table5[[#This Row],[lower]])</f>
         <v>Het</v>
       </c>
-      <c r="Q13" s="15" t="str">
+      <c r="Q13" t="str">
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Het  Modi</v>
       </c>
-      <c r="R13" s="17" t="str">
+      <c r="R13" s="14" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>f</v>
       </c>
@@ -4934,34 +8578,34 @@
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14">
         <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
         <v>0</v>
       </c>
-      <c r="M14" s="15" t="str">
+      <c r="M14" t="str">
         <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="N14" s="15" t="str">
+      <c r="N14" t="str">
         <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
         <v>GANDO</v>
       </c>
-      <c r="O14" s="15" t="str">
+      <c r="O14" t="str">
         <f>LOWER(Table5[[#This Row],[upper]])</f>
         <v>gando</v>
       </c>
-      <c r="P14" s="15" t="str">
+      <c r="P14" t="str">
         <f>PROPER(Table5[[#This Row],[lower]])</f>
         <v>Gando</v>
       </c>
-      <c r="Q14" s="15" t="str">
+      <c r="Q14" t="str">
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Gando  Yagnik</v>
       </c>
-      <c r="R14" s="17" t="str">
+      <c r="R14" s="14" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>B</v>
       </c>
@@ -4999,34 +8643,34 @@
         <f t="shared" si="0"/>
         <v>72.666666666666671</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15">
         <f>COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"&lt;12")+COUNTIF(Table5[[#This Row],[MATHS]:[TOTAL]],"=ab")</f>
         <v>0</v>
       </c>
-      <c r="M15" s="15" t="str">
+      <c r="M15" t="str">
         <f>IF(Table5[[#This Row],[backlock]]=0,"pass","fail")</f>
         <v>pass</v>
       </c>
-      <c r="N15" s="15" t="str">
+      <c r="N15" t="str">
         <f>UPPER(Table5[[#This Row],[FIRSTNAME]])</f>
         <v>LADU</v>
       </c>
-      <c r="O15" s="15" t="str">
+      <c r="O15" t="str">
         <f>LOWER(Table5[[#This Row],[upper]])</f>
         <v>ladu</v>
       </c>
-      <c r="P15" s="15" t="str">
+      <c r="P15" t="str">
         <f>PROPER(Table5[[#This Row],[lower]])</f>
         <v>Ladu</v>
       </c>
-      <c r="Q15" s="15" t="str">
+      <c r="Q15" t="str">
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Ladu  Ledy</v>
       </c>
-      <c r="R15" s="17" t="str">
+      <c r="R15" s="14" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>B</v>
       </c>
@@ -5091,12 +8735,12 @@
         <f>CONCATENATE(Table5[[#This Row],[FIRSTNAME]],"  ",Table5[[#This Row],[LASTNAME]])</f>
         <v>Padu  Bro</v>
       </c>
-      <c r="R16" s="18" t="str">
+      <c r="R16" s="15" t="str">
         <f>IF(Table5[[#This Row],[pass/fail2]]="fail","f",IF(Table5[[#This Row],[PERCENTAGE]]&gt;85,"A",IF(Table5[[#This Row],[PERCENTAGE]]&gt;60,"B",IF(Table5[[#This Row],[PERCENTAGE]]&gt;30,"C","D"))))</f>
         <v>f</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>63</v>
       </c>
@@ -5116,32 +8760,32 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19">
         <f>COUNTA(Table5[MATHS])</f>
         <v>15</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19">
         <f>COUNTA(Table5[PHY])</f>
         <v>15</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19">
         <f>COUNTA(Table5[OOP])</f>
         <v>15</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19">
         <f>COUNTA(Table5[FOE])</f>
         <v>15</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19">
         <f>COUNTA(Table5[DBMS])</f>
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="11" t="s">
         <v>53</v>
       </c>
@@ -5166,7 +8810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>45</v>
       </c>
@@ -5191,32 +8835,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <f>D20/D19</f>
         <v>0.6</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="12">
         <f t="shared" ref="E22:H22" si="3">E20/E19</f>
         <v>0.8</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="12">
         <f t="shared" si="3"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="12">
         <f t="shared" si="3"/>
         <v>0.73333333333333328</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="12">
         <f t="shared" si="3"/>
         <v>0.8666666666666667</v>
       </c>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>55</v>
       </c>
@@ -5241,7 +8885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>56</v>
       </c>
@@ -5266,29 +8910,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="J25" s="15"/>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="J30" s="15"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="J31" s="15"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="D2:H16">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J16">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5328,7 +8957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4C397-8715-4A34-AC4D-15DA692E96AA}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -5339,44 +8968,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -6037,4 +9666,769 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1708044F-9F8E-4ABD-92E4-8050B96554B2}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2">
+        <v>12000</v>
+      </c>
+      <c r="D2">
+        <f>IF(C2&lt;20000,C2*10%,IF(C2&lt;30000,C2*12%,IF(C2&lt;40000,C2*16%,IF(C2&lt;50000,C2*18%,C2*20%))))</f>
+        <v>1200</v>
+      </c>
+      <c r="E2">
+        <f>IF(C2&lt;20000,C2*12%,IF(C2&lt;30000,C2*14%,IF(C2&lt;40000,C2*17%,IF(C2&lt;50000,C2*20%,C2*25%))))</f>
+        <v>1440</v>
+      </c>
+      <c r="F2">
+        <f>SUM(C2:E2)</f>
+        <v>14640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>24000</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">IF(C3&lt;20000,C3*10%,IF(C3&lt;30000,C3*12%,IF(C3&lt;40000,C3*16%,IF(C3&lt;50000,C3*18%,C3*20%))))</f>
+        <v>2880</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="1">IF(C3&lt;20000,C3*12%,IF(C3&lt;30000,C3*14%,IF(C3&lt;40000,C3*17%,IF(C3&lt;50000,C3*20%,C3*25%))))</f>
+        <v>3360.0000000000005</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="2">SUM(C3:E3)</f>
+        <v>30240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
+        <v>35000</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>5600</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>5950</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>46550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>46000</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>8280</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>9200</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>63480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6">
+        <v>58000</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>11600</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>14500</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>84100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEECB1A9-9B02-4D2A-842A-AC0AB2194B98}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="20">
+        <f>COUNTIF(C2:H2,"p")</f>
+        <v>5</v>
+      </c>
+      <c r="J2" s="20">
+        <f>COUNTIF(C2:H2,"a")</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="20">
+        <f>COUNTA(C2:H2)</f>
+        <v>6</v>
+      </c>
+      <c r="L2" s="21">
+        <f>I2/K2*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="20">
+        <f t="shared" ref="I3:I11" si="0">COUNTIF(C3:H3,"p")</f>
+        <v>6</v>
+      </c>
+      <c r="J3" s="20">
+        <f t="shared" ref="J3:J11" si="1">COUNTIF(C3:H3,"a")</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <f t="shared" ref="K3:K11" si="2">COUNTA(C3:H3)</f>
+        <v>6</v>
+      </c>
+      <c r="L3" s="21">
+        <f t="shared" ref="L3:L11" si="3">I3/K3*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J4" s="20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K4" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K5" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L5" s="21">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J6" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="3"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="3"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="3"/>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="3"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L11" s="21">
+        <f t="shared" si="3"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="22">
+        <f>COUNTA(Table3[31-03-2023])</f>
+        <v>10</v>
+      </c>
+      <c r="D14" s="22">
+        <f>COUNTA(Table3[01-04-2023])</f>
+        <v>10</v>
+      </c>
+      <c r="E14" s="22">
+        <f>COUNTA(Table3[02-04-2023])</f>
+        <v>10</v>
+      </c>
+      <c r="F14" s="22">
+        <f>COUNTA(Table3[03-04-2023])</f>
+        <v>10</v>
+      </c>
+      <c r="G14" s="22">
+        <f>COUNTA(Table3[04-04-2023])</f>
+        <v>10</v>
+      </c>
+      <c r="H14" s="22">
+        <f>COUNTA(Table3[05-04-2023])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="23">
+        <f>COUNTIF(Table3[31-03-2023],"p")</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="23">
+        <f>COUNTIF(Table3[01-04-2023],"p")</f>
+        <v>9</v>
+      </c>
+      <c r="E15" s="23">
+        <f>COUNTIF(Table3[02-04-2023],"p")</f>
+        <v>7</v>
+      </c>
+      <c r="F15" s="23">
+        <f>COUNTIF(Table3[03-04-2023],"p")</f>
+        <v>6</v>
+      </c>
+      <c r="G15" s="23">
+        <f>COUNTIF(Table3[04-04-2023],"p")</f>
+        <v>7</v>
+      </c>
+      <c r="H15" s="23">
+        <f>COUNTIF(Table3[05-04-2023],"p")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="24">
+        <f>COUNTIF(Table3[31-03-2023],"a")</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="24">
+        <f>COUNTIF(Table3[01-04-2023],"a")</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="24">
+        <f>COUNTIF(Table3[02-04-2023],"a")</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="24">
+        <f>COUNTIF(Table3[03-04-2023],"a")</f>
+        <v>4</v>
+      </c>
+      <c r="G16" s="24">
+        <f>COUNTIF(Table3[04-04-2023],"a")</f>
+        <v>3</v>
+      </c>
+      <c r="H16" s="24">
+        <f>COUNTIF(Table3[05-04-2023],"a")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="25">
+        <f>C15/C14*100</f>
+        <v>80</v>
+      </c>
+      <c r="D17" s="25">
+        <f>D15/D14*100</f>
+        <v>90</v>
+      </c>
+      <c r="E17" s="25">
+        <f>E15/E14*100</f>
+        <v>70</v>
+      </c>
+      <c r="F17" s="25">
+        <f>F15/F14*100</f>
+        <v>60</v>
+      </c>
+      <c r="G17" s="25">
+        <f>G15/G14*100</f>
+        <v>70</v>
+      </c>
+      <c r="H17" s="25">
+        <f>H15/H14*100</f>
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:H11 C14:H17">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"p"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>